--- a/한국등산트레킹지원센터_100대명산/mnt_100_course_info/100대_명산_주요코스.xlsx
+++ b/한국등산트레킹지원센터_100대명산/mnt_100_course_info/100대_명산_주요코스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseokyung/Documents/2025-LikeLion-hikers/hikers-DATA/한국등산트레킹지원센터_산림청 100대명산/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseokyung/Documents/2025-LikeLion-hikers/hikers-DATA/한국등산트레킹지원센터_100대명산/mnt_100_course_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6476561-3B02-0F4C-8C34-3F826E5CB005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04DA3FA-EBD9-A84B-A0F2-0E3F351C9328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22060" windowHeight="17480" activeTab="1" xr2:uid="{15474F35-E488-3142-AEAE-8F04622A6B2D}"/>
+    <workbookView xWindow="7820" yWindow="1420" windowWidth="22060" windowHeight="17480" xr2:uid="{15474F35-E488-3142-AEAE-8F04622A6B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9869,7 +9869,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9910,12 +9910,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -10261,14 +10255,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41AAC5-5C9D-AA46-BBF1-E83644194DD2}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" style="6" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -12499,7 +12493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB2AD1A-9103-6E42-88AC-1385FC75EB82}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -13012,222 +13006,222 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>3</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="16">
+      <c r="A38" s="14">
         <v>6</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="16">
+      <c r="A39" s="14">
         <v>7</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="16">
+      <c r="A40" s="14">
         <v>17</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="16">
+      <c r="A41" s="14">
         <v>18</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="16">
+      <c r="A42" s="14">
         <v>46</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="16">
+      <c r="A43" s="14">
         <v>48</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="16">
+      <c r="A44" s="14">
         <v>50</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="16">
+      <c r="A45" s="14">
         <v>51</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="16">
+      <c r="A46" s="14">
         <v>61</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="16">
+      <c r="A47" s="14">
         <v>67</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="16">
+      <c r="A48" s="14">
         <v>77</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="16">
+      <c r="A49" s="14">
         <v>93</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="16">
+      <c r="A50" s="14">
         <v>95</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" t="s">
         <v>505</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="14">
+      <c r="A52" s="11">
         <v>19</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" t="s">
         <v>511</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14">
+      <c r="A53" s="11">
         <v>23</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" t="s">
         <v>512</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="14">
+      <c r="A54" s="11">
         <v>28</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="14">
+      <c r="A55" s="11">
         <v>29</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="14">
+      <c r="A56" s="11">
         <v>33</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56">
         <v>4</v>
       </c>
     </row>
@@ -13331,35 +13325,35 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="14">
+      <c r="A66" s="11">
         <v>22</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="14">
+      <c r="A67" s="11">
         <v>30</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="14">
+      <c r="A68" s="11">
         <v>34</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68">
         <v>3</v>
       </c>
     </row>
@@ -13419,46 +13413,46 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="14">
+      <c r="A74" s="11">
         <v>1</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="14">
+      <c r="A75" s="11">
         <v>2</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="14">
+      <c r="A76" s="11">
         <v>8</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="14">
+      <c r="A77" s="11">
         <v>25</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" t="s">
         <v>514</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77">
         <v>2</v>
       </c>
     </row>
@@ -13540,79 +13534,79 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="14">
+      <c r="A85" s="11">
         <v>11</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="14">
+      <c r="A86" s="11">
         <v>12</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" t="s">
         <v>507</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14">
+      <c r="A87" s="11">
         <v>16</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="14">
+      <c r="A88" s="11">
         <v>20</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="14">
+      <c r="A89" s="11">
         <v>21</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="14">
+      <c r="A90" s="11">
         <v>26</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="14">
+      <c r="A91" s="11">
         <v>32</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
